--- a/data/trans_dic/P16A04-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03158534935199685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.01474138851025177</v>
+        <v>0.01474138851025178</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01002041257439229</v>
@@ -685,7 +685,7 @@
         <v>0.01391453422782111</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04058076662547333</v>
+        <v>0.04058076662547332</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01687994729233305</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01016291776846409</v>
+        <v>0.009862658779038722</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01285242758608795</v>
+        <v>0.01201014389810804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01671740184283093</v>
+        <v>0.01743940300529456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007769777800732042</v>
+        <v>0.007097120173507018</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003152319956884168</v>
+        <v>0.003042145371113926</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009123374113107395</v>
+        <v>0.009276688267979009</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003187561200078387</v>
+        <v>0.003221902153298595</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02662685399040582</v>
+        <v>0.02665228682660772</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00850393120156899</v>
+        <v>0.009495755319065153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01487262094416248</v>
+        <v>0.01427844239264179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01432310656377627</v>
+        <v>0.01373872755979114</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01873136364100958</v>
+        <v>0.01820252010830791</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03897361261286598</v>
+        <v>0.04110916595461747</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05205671185845757</v>
+        <v>0.05072799590542946</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05373594015298233</v>
+        <v>0.05411809228244603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02918616485348429</v>
+        <v>0.02802044511228237</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02710803085573936</v>
+        <v>0.0266082920690706</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04812422308624439</v>
+        <v>0.04764222948644103</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0356899519725269</v>
+        <v>0.03518685493843774</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06130513032709256</v>
+        <v>0.06110360487331053</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02887170386892625</v>
+        <v>0.02897416175276399</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04223029673150818</v>
+        <v>0.04118942677982704</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03957559237958874</v>
+        <v>0.0390609106898465</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03692957808896741</v>
+        <v>0.03670219348857068</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002804628521529544</v>
+        <v>0.002401728025132698</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009333501001577997</v>
+        <v>0.009086213448667856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008238213210169518</v>
+        <v>0.0081045422698691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00787208098703374</v>
+        <v>0.008250296558107637</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01344314499302959</v>
+        <v>0.01294133179560033</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009080974762423822</v>
+        <v>0.008834654384056987</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003356113674645314</v>
+        <v>0.003573513258006314</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007596675752279959</v>
+        <v>0.008309047255600773</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01051726280751037</v>
+        <v>0.009973595799959073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01189753685483317</v>
+        <v>0.01190256201825464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.007951396744023606</v>
+        <v>0.008225479380479621</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.009491182700023741</v>
+        <v>0.009628314535145564</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02594329933352066</v>
+        <v>0.02445124183825749</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03646646251610412</v>
+        <v>0.03554171228765959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03799514117258018</v>
+        <v>0.03872250307523957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02960230199050761</v>
+        <v>0.03127759979450299</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0461086033300558</v>
+        <v>0.04796128530574623</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0427853041596329</v>
+        <v>0.04071268104278919</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02972716240995335</v>
+        <v>0.02992955381769106</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03035202722545384</v>
+        <v>0.03057006711747387</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03029802272603479</v>
+        <v>0.03053751469221067</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03267253817913621</v>
+        <v>0.03297777057119378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02735030715326783</v>
+        <v>0.02680219864851439</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02568279971604856</v>
+        <v>0.02415655971881617</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01179766346186543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04485578025726897</v>
+        <v>0.04485578025726898</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03512221266946155</v>
@@ -969,7 +969,7 @@
         <v>0.02022998129202993</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04624773516675223</v>
+        <v>0.04624773516675224</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008278616686510015</v>
+        <v>0.008107850937026128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02169484747513509</v>
+        <v>0.02231742679024696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005625798644571643</v>
+        <v>0.003998864224721504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02737202467777794</v>
+        <v>0.02865196857193431</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01174822914258668</v>
+        <v>0.01303530623960771</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.012227181158007</v>
+        <v>0.01179681947484567</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01730360849355981</v>
+        <v>0.01735455652247417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02709758855333117</v>
+        <v>0.03023698474476505</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01172148955029237</v>
+        <v>0.01231058774871153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02239678796653251</v>
+        <v>0.0228205000909663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01066956347117081</v>
+        <v>0.01079403498871947</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03135238133982188</v>
+        <v>0.03307859988104376</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02919966498449063</v>
+        <v>0.02784251331332573</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06078699406812206</v>
+        <v>0.05722982278811832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02559428306726289</v>
+        <v>0.02480904589042769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06914051313000626</v>
+        <v>0.07057665750262718</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07155326219084852</v>
+        <v>0.07543799631123996</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05345318580437088</v>
+        <v>0.05682890327616073</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09561892251957267</v>
+        <v>0.09796758955964571</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08089610729664666</v>
+        <v>0.07983026652137661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0324916144925625</v>
+        <v>0.03348358440875696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0512225932859814</v>
+        <v>0.0521713088899167</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03401019256571987</v>
+        <v>0.0359671110470214</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06464742272478059</v>
+        <v>0.06616900689828648</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01171952784169124</v>
+        <v>0.01291241065466314</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02088490507623739</v>
+        <v>0.02127364166178442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01510205111071066</v>
+        <v>0.01534330552491692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01508666728461678</v>
+        <v>0.01478377487018828</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0184203119343325</v>
+        <v>0.01876515794392094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03085073727475564</v>
+        <v>0.03036140502624879</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02178811977012926</v>
+        <v>0.02176063048575467</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02058953914880682</v>
+        <v>0.02111197756573758</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01600008015920213</v>
+        <v>0.01657657702044516</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02778075281663993</v>
+        <v>0.02794072210323728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02027287066557545</v>
+        <v>0.02040751941014935</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01946880376211141</v>
+        <v>0.01918159011546294</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02883307936949714</v>
+        <v>0.02864090041613846</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04294033710331269</v>
+        <v>0.04395165003388241</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0337424325220192</v>
+        <v>0.03322571062453921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03586274360576167</v>
+        <v>0.03582527756560167</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04280238780715031</v>
+        <v>0.04374733993426539</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06201747180232256</v>
+        <v>0.06424025817232325</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04745898060626948</v>
+        <v>0.04717363810978176</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04123518384582475</v>
+        <v>0.03988930162391948</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02970668157767705</v>
+        <v>0.02999846733551989</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04644464064167404</v>
+        <v>0.04603208124566176</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03473422832370437</v>
+        <v>0.03507425206582401</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03412552847415876</v>
+        <v>0.03432194386446177</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02046404449868443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.01723743182687152</v>
+        <v>0.01723743182687153</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02378305195529667</v>
@@ -1241,7 +1241,7 @@
         <v>0.0222705025629183</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03171378006001001</v>
+        <v>0.03171378006001</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0144251600197297</v>
+        <v>0.01593682608943521</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0200503081553875</v>
+        <v>0.018129175667704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0103547905376698</v>
+        <v>0.009896716949907729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008984402823483496</v>
+        <v>0.009751468545509722</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01308937646516845</v>
+        <v>0.01253580057733411</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0125455234050201</v>
+        <v>0.01212831529822003</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0144378592835525</v>
+        <v>0.0139296624698788</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03088536804806301</v>
+        <v>0.03118978312510352</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.017108420956076</v>
+        <v>0.01690936527261602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01766266386516771</v>
+        <v>0.01762794557920461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0148636329211634</v>
+        <v>0.01555386475938101</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02408780354894939</v>
+        <v>0.02434750160833367</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05218030425213874</v>
+        <v>0.05377633915305629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05002990210249041</v>
+        <v>0.04977780065518699</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03647380537474328</v>
+        <v>0.03483977533004032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03036347010083188</v>
+        <v>0.03008895679490318</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.043103518345389</v>
+        <v>0.0409152752570168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03455672598998402</v>
+        <v>0.03516559356127651</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03866741167363796</v>
+        <v>0.03541967120435818</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05389517756230452</v>
+        <v>0.05518668431550446</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03936109307002358</v>
+        <v>0.04013048170123254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03578041469269778</v>
+        <v>0.03642195868345603</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03178981426922976</v>
+        <v>0.03206646376032796</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04056839148819798</v>
+        <v>0.04114161732981178</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.01523576341142679</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02807490686285002</v>
+        <v>0.02807490686285001</v>
       </c>
     </row>
     <row r="20">
@@ -1394,34 +1394,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003227896016415584</v>
+        <v>0.003216296459981731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01060937245962529</v>
+        <v>0.009781009375113619</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01136750027886079</v>
+        <v>0.01171677646005275</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01690454288881751</v>
+        <v>0.0173728189633177</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.009319259356306621</v>
+        <v>0.009572578639080788</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01806287498887435</v>
+        <v>0.01780145606263139</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009557934170057143</v>
+        <v>0.01003229410062211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01494586146040183</v>
+        <v>0.01517242369842743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.008891636320213905</v>
+        <v>0.009364759693379344</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01865742912436749</v>
+        <v>0.01933451645281151</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02335514796805293</v>
+        <v>0.02364427910943252</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03084805459985466</v>
+        <v>0.03084987889717883</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02806794576236426</v>
+        <v>0.02730347478791228</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08653837706168777</v>
+        <v>0.09190250112999064</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02702297995373425</v>
+        <v>0.02700448216682421</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03697446935464948</v>
+        <v>0.0365731603270331</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02558677172118158</v>
+        <v>0.02605019530504035</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03822823815552547</v>
+        <v>0.03717145635177576</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02231639360606386</v>
+        <v>0.02289591464372117</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03086342150389415</v>
+        <v>0.03194834703684391</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02336369985182625</v>
+        <v>0.02320615041717739</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04134403058495945</v>
+        <v>0.04173859649763677</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01358015736914912</v>
+        <v>0.01384187271609582</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02195288168582265</v>
+        <v>0.02212791591646753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01590598448031275</v>
+        <v>0.01607256715779946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01874726409679746</v>
+        <v>0.01880771582021027</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01763592688228192</v>
+        <v>0.01743420072245483</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02328845239698304</v>
+        <v>0.02289545635249891</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01734167413413428</v>
+        <v>0.01805050536270913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02728640131369271</v>
+        <v>0.02777793829321969</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01699904875149923</v>
+        <v>0.01681645412308051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02441731889408519</v>
+        <v>0.02446960191094661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01807706751044985</v>
+        <v>0.01821611121641806</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02466389178356337</v>
+        <v>0.02457417482720412</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02286273649790284</v>
+        <v>0.02274657025726836</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03534132599040204</v>
+        <v>0.03480504226680051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02569514880083796</v>
+        <v>0.02584968957535054</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03017716226929498</v>
+        <v>0.0299218717604595</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02710236714472712</v>
+        <v>0.02778414471645271</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03466400006024828</v>
+        <v>0.03477419679986372</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02767961863167227</v>
+        <v>0.02800269747566983</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0377210269382182</v>
+        <v>0.0381460461564946</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02391459679820832</v>
+        <v>0.02392194995415947</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03297405412747868</v>
+        <v>0.03309438933706872</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02537785679208343</v>
+        <v>0.02538595784915262</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03232542563408006</v>
+        <v>0.03275718841498956</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4815</v>
+        <v>4673</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5591</v>
+        <v>5225</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7173</v>
+        <v>7483</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4278</v>
+        <v>3908</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2869</v>
+        <v>2917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13005</v>
+        <v>13017</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6637</v>
+        <v>7411</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11147</v>
+        <v>10701</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11117</v>
+        <v>10663</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19462</v>
+        <v>18913</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18465</v>
+        <v>19477</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22646</v>
+        <v>22068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23058</v>
+        <v>23222</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16070</v>
+        <v>15429</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8313</v>
+        <v>8160</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15133</v>
+        <v>14981</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12386</v>
+        <v>12212</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29942</v>
+        <v>29844</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22533</v>
+        <v>22613</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31650</v>
+        <v>30870</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30716</v>
+        <v>30317</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>38371</v>
+        <v>38135</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1029</v>
+        <v>881</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3892</v>
+        <v>3789</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3108</v>
+        <v>3057</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3804</v>
+        <v>3987</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4999</v>
+        <v>4812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3045</v>
+        <v>2962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1249</v>
+        <v>1330</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3214</v>
+        <v>3516</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7770</v>
+        <v>7368</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8951</v>
+        <v>8955</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5960</v>
+        <v>6165</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8602</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9519</v>
+        <v>8972</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15207</v>
+        <v>14822</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14333</v>
+        <v>14607</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14304</v>
+        <v>15114</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17146</v>
+        <v>17835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14347</v>
+        <v>13652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11067</v>
+        <v>11142</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12843</v>
+        <v>12936</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>22384</v>
+        <v>22561</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24581</v>
+        <v>24810</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20499</v>
+        <v>20088</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23278</v>
+        <v>21894</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4490</v>
+        <v>4398</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13588</v>
+        <v>13978</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2936</v>
+        <v>2087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12909</v>
+        <v>13513</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1971</v>
+        <v>2187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3167</v>
+        <v>3055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5081</v>
+        <v>5669</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8324</v>
+        <v>8743</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19828</v>
+        <v>20203</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7341</v>
+        <v>7427</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>20665</v>
+        <v>21802</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15838</v>
+        <v>15101</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38073</v>
+        <v>35845</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13358</v>
+        <v>12948</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32607</v>
+        <v>33285</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12005</v>
+        <v>12657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13843</v>
+        <v>14718</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15885</v>
+        <v>16275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15168</v>
+        <v>14968</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23075</v>
+        <v>23779</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45348</v>
+        <v>46188</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23400</v>
+        <v>24747</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42610</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14513</v>
+        <v>15990</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24152</v>
+        <v>24601</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17362</v>
+        <v>17639</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17076</v>
+        <v>16733</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13157</v>
+        <v>13404</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23621</v>
+        <v>23247</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17994</v>
+        <v>17972</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>17713</v>
+        <v>18162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>31242</v>
+        <v>32368</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>53397</v>
+        <v>53704</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40049</v>
+        <v>40315</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38784</v>
+        <v>38212</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35705</v>
+        <v>35467</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49657</v>
+        <v>50827</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>38792</v>
+        <v>38198</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40591</v>
+        <v>40549</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30573</v>
+        <v>31248</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47484</v>
+        <v>49186</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39195</v>
+        <v>38960</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35474</v>
+        <v>34316</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58006</v>
+        <v>58576</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>89270</v>
+        <v>88477</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>68618</v>
+        <v>69290</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>67982</v>
+        <v>68374</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5042</v>
+        <v>5571</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10238</v>
+        <v>9257</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6427</v>
+        <v>6143</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5089</v>
+        <v>5524</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7445</v>
+        <v>7130</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9514</v>
+        <v>9198</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10659</v>
+        <v>10283</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25639</v>
+        <v>25891</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15710</v>
+        <v>15528</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22413</v>
+        <v>22369</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>20199</v>
+        <v>21137</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>33641</v>
+        <v>34004</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18239</v>
+        <v>18797</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25545</v>
+        <v>25416</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>22640</v>
+        <v>21625</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17200</v>
+        <v>17045</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24515</v>
+        <v>23271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26207</v>
+        <v>26668</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28546</v>
+        <v>26148</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>44740</v>
+        <v>45812</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36145</v>
+        <v>36851</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>45404</v>
+        <v>46218</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>43201</v>
+        <v>43577</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56658</v>
+        <v>57459</v>
       </c>
     </row>
     <row r="24">
@@ -2780,34 +2780,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2517</v>
+        <v>2320</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14195</v>
+        <v>14631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18684</v>
+        <v>19201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>10084</v>
+        <v>10358</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15227</v>
+        <v>15007</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>14786</v>
+        <v>15520</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>20492</v>
+        <v>20803</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12174</v>
+        <v>12822</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>20154</v>
+        <v>20886</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6965</v>
+        <v>7051</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>8201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8060</v>
+        <v>7840</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20529</v>
+        <v>21802</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>33745</v>
+        <v>33722</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40866</v>
+        <v>40423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>27686</v>
+        <v>28187</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>32226</v>
+        <v>31335</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34523</v>
+        <v>35419</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>42317</v>
+        <v>43804</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>31989</v>
+        <v>31773</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>44661</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44396</v>
+        <v>45251</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>74886</v>
+        <v>75483</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>53853</v>
+        <v>54417</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>64509</v>
+        <v>64717</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>59576</v>
+        <v>58895</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>82395</v>
+        <v>81005</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>61244</v>
+        <v>63747</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>99117</v>
+        <v>100902</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>112998</v>
+        <v>111784</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>169682</v>
+        <v>170046</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>125045</v>
+        <v>126007</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>174459</v>
+        <v>173824</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>74742</v>
+        <v>74362</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>120558</v>
+        <v>118728</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>86997</v>
+        <v>87520</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>103839</v>
+        <v>102961</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>91555</v>
+        <v>93858</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>122642</v>
+        <v>123032</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>97753</v>
+        <v>98894</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>137020</v>
+        <v>138564</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>158967</v>
+        <v>159016</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>229146</v>
+        <v>229982</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>175547</v>
+        <v>175603</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>228652</v>
+        <v>231706</v>
       </c>
     </row>
     <row r="32">
